--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.1122340858235</v>
+        <v>0.1554466666666666</v>
       </c>
       <c r="H2">
-        <v>10.1122340858235</v>
+        <v>0.46634</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01411428973016386</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01411428973016386</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.86946760153019</v>
+        <v>8.646358666666666</v>
       </c>
       <c r="N2">
-        <v>7.86946760153019</v>
+        <v>25.939076</v>
       </c>
       <c r="O2">
-        <v>0.220538006231642</v>
+        <v>0.1920122657718527</v>
       </c>
       <c r="P2">
-        <v>0.220538006231642</v>
+        <v>0.1920122657718527</v>
       </c>
       <c r="Q2">
-        <v>79.57789851747729</v>
+        <v>1.344047633537778</v>
       </c>
       <c r="R2">
-        <v>79.57789851747729</v>
+        <v>12.09642870184</v>
       </c>
       <c r="S2">
-        <v>0.220538006231642</v>
+        <v>0.002710116750849154</v>
       </c>
       <c r="T2">
-        <v>0.220538006231642</v>
+        <v>0.002710116750849154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.1122340858235</v>
+        <v>0.1554466666666666</v>
       </c>
       <c r="H3">
-        <v>10.1122340858235</v>
+        <v>0.46634</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01411428973016386</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01411428973016386</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.12756202599544</v>
+        <v>7.131051333333333</v>
       </c>
       <c r="N3">
-        <v>7.12756202599544</v>
+        <v>21.393154</v>
       </c>
       <c r="O3">
-        <v>0.1997464629246007</v>
+        <v>0.1583613838652608</v>
       </c>
       <c r="P3">
-        <v>0.1997464629246007</v>
+        <v>0.1583613838652608</v>
       </c>
       <c r="Q3">
-        <v>72.07557566809228</v>
+        <v>1.108498159595555</v>
       </c>
       <c r="R3">
-        <v>72.07557566809228</v>
+        <v>9.976483436359999</v>
       </c>
       <c r="S3">
-        <v>0.1997464629246007</v>
+        <v>0.002235158453943986</v>
       </c>
       <c r="T3">
-        <v>0.1997464629246007</v>
+        <v>0.002235158453943988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.1122340858235</v>
+        <v>0.1554466666666666</v>
       </c>
       <c r="H4">
-        <v>10.1122340858235</v>
+        <v>0.46634</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01411428973016386</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01411428973016386</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.42999662176467</v>
+        <v>1.531490333333333</v>
       </c>
       <c r="N4">
-        <v>4.42999662176467</v>
+        <v>4.594471</v>
       </c>
       <c r="O4">
-        <v>0.1241485030559016</v>
+        <v>0.0340102626143302</v>
       </c>
       <c r="P4">
-        <v>0.1241485030559016</v>
+        <v>0.03401026261433021</v>
       </c>
       <c r="Q4">
-        <v>44.79716283869165</v>
+        <v>0.2380650673488889</v>
       </c>
       <c r="R4">
-        <v>44.79716283869165</v>
+        <v>2.14258560614</v>
       </c>
       <c r="S4">
-        <v>0.1241485030559016</v>
+        <v>0.0004800307003376166</v>
       </c>
       <c r="T4">
-        <v>0.1241485030559016</v>
+        <v>0.0004800307003376168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,929 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1554466666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.46634</v>
+      </c>
+      <c r="I5">
+        <v>0.01411428973016386</v>
+      </c>
+      <c r="J5">
+        <v>0.01411428973016386</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.621346333333332</v>
+      </c>
+      <c r="N5">
+        <v>13.864039</v>
+      </c>
+      <c r="O5">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="P5">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="Q5">
+        <v>0.7183728830288887</v>
+      </c>
+      <c r="R5">
+        <v>6.465355947259999</v>
+      </c>
+      <c r="S5">
+        <v>0.001448515911990309</v>
+      </c>
+      <c r="T5">
+        <v>0.00144851591199031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1554466666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.46634</v>
+      </c>
+      <c r="I6">
+        <v>0.01411428973016386</v>
+      </c>
+      <c r="J6">
+        <v>0.01411428973016386</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.6145123333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.843537</v>
+      </c>
+      <c r="O6">
+        <v>0.0136466586706575</v>
+      </c>
+      <c r="P6">
+        <v>0.01364665867065751</v>
+      </c>
+      <c r="Q6">
+        <v>0.09552389384222221</v>
+      </c>
+      <c r="R6">
+        <v>0.8597150445799999</v>
+      </c>
+      <c r="S6">
+        <v>0.0001926128943263128</v>
+      </c>
+      <c r="T6">
+        <v>0.0001926128943263128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1554466666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.46634</v>
+      </c>
+      <c r="I7">
+        <v>0.01411428973016386</v>
+      </c>
+      <c r="J7">
+        <v>0.01411428973016386</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.48548233333333</v>
+      </c>
+      <c r="N7">
+        <v>67.456447</v>
+      </c>
+      <c r="O7">
+        <v>0.4993418126917433</v>
+      </c>
+      <c r="P7">
+        <v>0.4993418126917434</v>
+      </c>
+      <c r="Q7">
+        <v>3.495293277108888</v>
+      </c>
+      <c r="R7">
+        <v>31.45763949398</v>
+      </c>
+      <c r="S7">
+        <v>0.007047855018716477</v>
+      </c>
+      <c r="T7">
+        <v>0.007047855018716479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.5191396666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.557419</v>
+      </c>
+      <c r="I8">
+        <v>0.04713698802861017</v>
+      </c>
+      <c r="J8">
+        <v>0.04713698802861018</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.646358666666666</v>
+      </c>
+      <c r="N8">
+        <v>25.939076</v>
+      </c>
+      <c r="O8">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="P8">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="Q8">
+        <v>4.488667756093777</v>
+      </c>
+      <c r="R8">
+        <v>40.39800980484399</v>
+      </c>
+      <c r="S8">
+        <v>0.009050879873034134</v>
+      </c>
+      <c r="T8">
+        <v>0.009050879873034136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10.1122340858235</v>
-      </c>
-      <c r="H5">
-        <v>10.1122340858235</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>16.2560187550456</v>
-      </c>
-      <c r="N5">
-        <v>16.2560187550456</v>
-      </c>
-      <c r="O5">
-        <v>0.4555670277878557</v>
-      </c>
-      <c r="P5">
-        <v>0.4555670277878557</v>
-      </c>
-      <c r="Q5">
-        <v>164.3846669545582</v>
-      </c>
-      <c r="R5">
-        <v>164.3846669545582</v>
-      </c>
-      <c r="S5">
-        <v>0.4555670277878557</v>
-      </c>
-      <c r="T5">
-        <v>0.4555670277878557</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.5191396666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.557419</v>
+      </c>
+      <c r="I9">
+        <v>0.04713698802861017</v>
+      </c>
+      <c r="J9">
+        <v>0.04713698802861018</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.131051333333333</v>
+      </c>
+      <c r="N9">
+        <v>21.393154</v>
+      </c>
+      <c r="O9">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="P9">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="Q9">
+        <v>3.702011612169555</v>
+      </c>
+      <c r="R9">
+        <v>33.318104509526</v>
+      </c>
+      <c r="S9">
+        <v>0.007464678655450937</v>
+      </c>
+      <c r="T9">
+        <v>0.00746467865545094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.5191396666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.557419</v>
+      </c>
+      <c r="I10">
+        <v>0.04713698802861017</v>
+      </c>
+      <c r="J10">
+        <v>0.04713698802861018</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.531490333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.594471</v>
+      </c>
+      <c r="O10">
+        <v>0.0340102626143302</v>
+      </c>
+      <c r="P10">
+        <v>0.03401026261433021</v>
+      </c>
+      <c r="Q10">
+        <v>0.7950573811498889</v>
+      </c>
+      <c r="R10">
+        <v>7.155516430349001</v>
+      </c>
+      <c r="S10">
+        <v>0.001603141341701571</v>
+      </c>
+      <c r="T10">
+        <v>0.001603141341701572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.5191396666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.557419</v>
+      </c>
+      <c r="I11">
+        <v>0.04713698802861017</v>
+      </c>
+      <c r="J11">
+        <v>0.04713698802861018</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.621346333333332</v>
+      </c>
+      <c r="N11">
+        <v>13.864039</v>
+      </c>
+      <c r="O11">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="P11">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="Q11">
+        <v>2.399124195037889</v>
+      </c>
+      <c r="R11">
+        <v>21.592117755341</v>
+      </c>
+      <c r="S11">
+        <v>0.004837556724999005</v>
+      </c>
+      <c r="T11">
+        <v>0.004837556724999006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.5191396666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.557419</v>
+      </c>
+      <c r="I12">
+        <v>0.04713698802861017</v>
+      </c>
+      <c r="J12">
+        <v>0.04713698802861018</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.6145123333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.843537</v>
+      </c>
+      <c r="O12">
+        <v>0.0136466586706575</v>
+      </c>
+      <c r="P12">
+        <v>0.01364665867065751</v>
+      </c>
+      <c r="Q12">
+        <v>0.3190177278892222</v>
+      </c>
+      <c r="R12">
+        <v>2.871159551003</v>
+      </c>
+      <c r="S12">
+        <v>0.0006432623863893121</v>
+      </c>
+      <c r="T12">
+        <v>0.0006432623863893122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.5191396666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.557419</v>
+      </c>
+      <c r="I13">
+        <v>0.04713698802861017</v>
+      </c>
+      <c r="J13">
+        <v>0.04713698802861018</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.48548233333333</v>
+      </c>
+      <c r="N13">
+        <v>67.456447</v>
+      </c>
+      <c r="O13">
+        <v>0.4993418126917433</v>
+      </c>
+      <c r="P13">
+        <v>0.4993418126917434</v>
+      </c>
+      <c r="Q13">
+        <v>11.67310580336589</v>
+      </c>
+      <c r="R13">
+        <v>105.057952230293</v>
+      </c>
+      <c r="S13">
+        <v>0.02353746904703521</v>
+      </c>
+      <c r="T13">
+        <v>0.02353746904703521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.33883833333333</v>
+      </c>
+      <c r="H14">
+        <v>31.016515</v>
+      </c>
+      <c r="I14">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="J14">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.646358666666666</v>
+      </c>
+      <c r="N14">
+        <v>25.939076</v>
+      </c>
+      <c r="O14">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="P14">
+        <v>0.1920122657718527</v>
+      </c>
+      <c r="Q14">
+        <v>89.39330442668222</v>
+      </c>
+      <c r="R14">
+        <v>804.5397398401399</v>
+      </c>
+      <c r="S14">
+        <v>0.1802512691479694</v>
+      </c>
+      <c r="T14">
+        <v>0.1802512691479694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.33883833333333</v>
+      </c>
+      <c r="H15">
+        <v>31.016515</v>
+      </c>
+      <c r="I15">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="J15">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.131051333333333</v>
+      </c>
+      <c r="N15">
+        <v>21.393154</v>
+      </c>
+      <c r="O15">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="P15">
+        <v>0.1583613838652608</v>
+      </c>
+      <c r="Q15">
+        <v>73.72678688203443</v>
+      </c>
+      <c r="R15">
+        <v>663.54108193831</v>
+      </c>
+      <c r="S15">
+        <v>0.1486615467558658</v>
+      </c>
+      <c r="T15">
+        <v>0.1486615467558659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.33883833333333</v>
+      </c>
+      <c r="H16">
+        <v>31.016515</v>
+      </c>
+      <c r="I16">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="J16">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.531490333333333</v>
+      </c>
+      <c r="N16">
+        <v>4.594471</v>
+      </c>
+      <c r="O16">
+        <v>0.0340102626143302</v>
+      </c>
+      <c r="P16">
+        <v>0.03401026261433021</v>
+      </c>
+      <c r="Q16">
+        <v>15.83383096539611</v>
+      </c>
+      <c r="R16">
+        <v>142.504478688565</v>
+      </c>
+      <c r="S16">
+        <v>0.03192709057229102</v>
+      </c>
+      <c r="T16">
+        <v>0.03192709057229103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.33883833333333</v>
+      </c>
+      <c r="H17">
+        <v>31.016515</v>
+      </c>
+      <c r="I17">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="J17">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.621346333333332</v>
+      </c>
+      <c r="N17">
+        <v>13.864039</v>
+      </c>
+      <c r="O17">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="P17">
+        <v>0.1026276163861554</v>
+      </c>
+      <c r="Q17">
+        <v>47.7793526226761</v>
+      </c>
+      <c r="R17">
+        <v>430.0141736040849</v>
+      </c>
+      <c r="S17">
+        <v>0.09634154374916609</v>
+      </c>
+      <c r="T17">
+        <v>0.09634154374916611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.33883833333333</v>
+      </c>
+      <c r="H18">
+        <v>31.016515</v>
+      </c>
+      <c r="I18">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="J18">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.6145123333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.843537</v>
+      </c>
+      <c r="O18">
+        <v>0.0136466586706575</v>
+      </c>
+      <c r="P18">
+        <v>0.01364665867065751</v>
+      </c>
+      <c r="Q18">
+        <v>6.353343668172777</v>
+      </c>
+      <c r="R18">
+        <v>57.18009301355499</v>
+      </c>
+      <c r="S18">
+        <v>0.01281078338994188</v>
+      </c>
+      <c r="T18">
+        <v>0.01281078338994188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.33883833333333</v>
+      </c>
+      <c r="H19">
+        <v>31.016515</v>
+      </c>
+      <c r="I19">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="J19">
+        <v>0.938748722241226</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.48548233333333</v>
+      </c>
+      <c r="N19">
+        <v>67.456447</v>
+      </c>
+      <c r="O19">
+        <v>0.4993418126917433</v>
+      </c>
+      <c r="P19">
+        <v>0.4993418126917434</v>
+      </c>
+      <c r="Q19">
+        <v>232.4737666913561</v>
+      </c>
+      <c r="R19">
+        <v>2092.263900222205</v>
+      </c>
+      <c r="S19">
+        <v>0.4687564886259916</v>
+      </c>
+      <c r="T19">
+        <v>0.4687564886259917</v>
       </c>
     </row>
   </sheetData>
